--- a/biology/Botanique/Convolvulus_tricolor/Convolvulus_tricolor.xlsx
+++ b/biology/Botanique/Convolvulus_tricolor/Convolvulus_tricolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus tricolor, connue communément sous les noms de liseron tricolore ou de belle-de-jour (parmi d'autres plantes)[1], est une plante annuelle à fleurs diurnes (ouvertes seulement le jour) de la famille des Convolvulaceae. Elle est cultivée comme plante ornementale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus tricolor, connue communément sous les noms de liseron tricolore ou de belle-de-jour (parmi d'autres plantes), est une plante annuelle à fleurs diurnes (ouvertes seulement le jour) de la famille des Convolvulaceae. Elle est cultivée comme plante ornementale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le liseron tricolore est une plante herbacée de 15-30 (-40) cm de haut[2]. Ses tiges sont poilues, parfois étalées sur le sol avec les extrémités relevées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le liseron tricolore est une plante herbacée de 15-30 (-40) cm de haut. Ses tiges sont poilues, parfois étalées sur le sol avec les extrémités relevées.
 Les feuilles sont sessiles, de 4-7 × 2 cm, obovales à oblongues, glabres ou avec quelques poils épars sur la face supérieure.
 Les fleurs font 3 à 5 centimètres de diamètre et leur couleur est un dégradé jaune - blanc - bleu mauve. Elles sont solitaires, portées par un long pédoncule (environ 7 cm), pubescent, partant à l'aisselle d'une feuille. Lorsqu'elles sont épanouies, elles dominent toute la plante. Le calice pubescent est formé d'une petite coupe bordée de 5 lobes obtus. La corolle en entonnoir, comporte une gorge jaune, bordée d'une zone blanche puis bleu mauve. Elle entoure 5 étamines, un style et deux stigmate filiformes.
 La fleur s'ouvre le matin et se ferme le soir. Elle reste épanouie environ 12 h puis fane. La floraison se poursuit avec de nouveaux boutons tout l'été.
@@ -546,9 +560,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le liseron tricolore se trouve naturellement dans les régions du littoral méditerranéen[3] : Algérie, Libye, Maroc, Tunisie, France, Portugal, Espagne, ex-Yougoslavie, Grèce, Italie. En Espagne, on le trouve dans les îles Baléares, en Andalousie et à la Costa del Sol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le liseron tricolore se trouve naturellement dans les régions du littoral méditerranéen : Algérie, Libye, Maroc, Tunisie, France, Portugal, Espagne, ex-Yougoslavie, Grèce, Italie. En Espagne, on le trouve dans les îles Baléares, en Andalousie et à la Costa del Sol.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sa culture est très facile en couvre-sol, plates-bandes, jardinières, bacs sur balcons ou terrasses. Il se sème directement en place à partir d'avril. Les graines germent en une à deux semaines. Il se plait en plein soleil ou à la rigueur à mi-ombre. Il n'aime pas être trop arrosé.
 Il existe des variétés cultivées rouges, roses ou blanches :
@@ -613,9 +631,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la belle-de-jour symbolise la coquetterie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la belle-de-jour symbolise la coquetterie.
 </t>
         </is>
       </c>
